--- a/results/data_of_all_removed_posttest.xlsx
+++ b/results/data_of_all_removed_posttest.xlsx
@@ -2226,13 +2226,16 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>90.27272727272727</v>
       </c>
       <c r="D47" t="s">
         <v>31</v>
       </c>
+      <c r="E47" t="s">
+        <v>39</v>
+      </c>
       <c r="F47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2249,16 +2252,13 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>90.27272727272727</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
         <v>31</v>
       </c>
-      <c r="E48" t="s">
-        <v>39</v>
-      </c>
       <c r="F48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>1</v>

--- a/results/data_of_all_removed_posttest.xlsx
+++ b/results/data_of_all_removed_posttest.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\master_arbeit\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D4780-9264-4932-8E56-357C2E3C6C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="259">
   <si>
     <t>Unique Code</t>
   </si>
@@ -416,9 +422,6 @@
   </si>
   <si>
     <t xml:space="preserve">222-1 227-149 113-35 133-62 405-56 202-58 179-82 174-110 182-149 397-150 168-178 196-220 174-187 174-230 182-196 174-238 174-220 170-260 163-308 150-344 179-314 376-54 182-308 172-344 75-394 120-356 156-322 404-44 150-362 150-318 177-370 185-315 236-127 264-145 266-163 246-58 178-328 160-354 131-385 133-339 168-179 172-358 155-314 214-164 176-243 204-188 156-324 182-166 193-192 232-216 306-144 260-160 211-186 180-220 216-200 128-344 248-167 213-185 213-82 141-359 86-385 130-353 170-305 144-360 189-283 180-253 405-56 182-72 229-276 151-424 118-404 234-267 322-88 174-106 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">122-71 394-53 127-78 203-97 167-151 153-177 152-193 186-222 180-265 181-217 186-197 190-238 176-272 163-325 154-352 142-383 129-401 136-359 146-319 143-252 146-267 188-45 221-76 395-51 250-162 188-195 219-141 249-171 419-64 218-53 272-167 257-209 126-224 242-38 240-56 198-217 178-258 241-159 201-220 174-293 175-324 172-264 164-336 159-362 161-323 159-357 164-334 161-353 102-403 165-64 163-230 163-171 168-280 161-259 173-221 185-175 185-196 165-173 175-205 166-225 147-258 172-209 174-199 148-376 148-327 146-306 148-330 152-357 153-325 147-300 148-261 158-200 145-273 144-354 139-398 166-184 150-88 165-57 206-100 171-189 178-223 155-256 163-223 201-239 179-224 226-200 157-187 151-172 200-92 229-68 217-161 229-79 181-151 180-197 160-261 145-318 147-343 143-371 136-359 152-174 125-140 157-190 208-236 289-42 241-62 107-311 128-355 193-154 174-211 182-186 195-158 189-197 163-163 238-97 277-72 374-41 393-67 390-58 </t>
   </si>
   <si>
     <t xml:space="preserve">156-144 211-177 205-51 470-56 206-72 331-63 214-105 238-165 243-199 252-165 206-178 220-158 223-199 178-246 173-263 181-317 173-375 119-405 166-351 153-298 170-273 188-240 221-213 241-186 241-165 259-209 171-267 220-223 243-186 178-259 238-104 244-56 </t>
@@ -799,8 +802,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,15 +862,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -909,7 +920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,9 +952,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -975,6 +1004,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1150,14 +1197,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H221"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:XFD96"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1203,7 +1252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1226,7 +1275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1249,7 +1298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1272,7 +1321,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1295,7 +1344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1318,7 +1367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1341,7 +1390,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1364,7 +1413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1387,7 +1436,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1410,7 +1459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1433,7 +1482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1456,7 +1505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1479,7 +1528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1502,7 +1551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1525,7 +1574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1548,7 +1597,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1571,7 +1620,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1594,7 +1643,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1617,7 +1666,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1640,7 +1689,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1663,7 +1712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1686,7 +1735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1709,7 +1758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1732,7 +1781,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1755,7 +1804,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1778,7 +1827,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1801,7 +1850,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1809,7 +1858,7 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>90.27272727272727</v>
+        <v>90.272727272727266</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
@@ -1827,7 +1876,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1850,7 +1899,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1873,7 +1922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1896,7 +1945,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1919,7 +1968,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1942,7 +1991,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1965,7 +2014,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1988,7 +2037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2011,7 +2060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2034,7 +2083,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2057,7 +2106,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2080,7 +2129,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2103,7 +2152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2126,7 +2175,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2149,7 +2198,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2172,7 +2221,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2195,7 +2244,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2218,7 +2267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2226,7 +2275,7 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <v>90.27272727272727</v>
+        <v>90.272727272727266</v>
       </c>
       <c r="D47" t="s">
         <v>31</v>
@@ -2244,7 +2293,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2267,7 +2316,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2290,7 +2339,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2313,7 +2362,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2336,7 +2385,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2359,7 +2408,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2382,7 +2431,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2405,7 +2454,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2428,7 +2477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2451,7 +2500,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2474,7 +2523,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2497,7 +2546,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2520,7 +2569,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2543,7 +2592,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2551,7 +2600,7 @@
         <v>22</v>
       </c>
       <c r="C61">
-        <v>90.27272727272727</v>
+        <v>90.272727272727266</v>
       </c>
       <c r="D61" t="s">
         <v>31</v>
@@ -2569,7 +2618,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2592,7 +2641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2615,7 +2664,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2638,7 +2687,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2661,7 +2710,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2684,7 +2733,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2707,7 +2756,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2730,7 +2779,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2753,7 +2802,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2776,7 +2825,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2799,7 +2848,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2822,7 +2871,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2845,7 +2894,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2868,7 +2917,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2891,7 +2940,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2914,7 +2963,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2937,7 +2986,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2960,7 +3009,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2983,7 +3032,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3006,7 +3055,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3029,7 +3078,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3052,7 +3101,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3075,7 +3124,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3098,7 +3147,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3121,7 +3170,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3144,7 +3193,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3167,7 +3216,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3190,7 +3239,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3213,7 +3262,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3236,7 +3285,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3259,7 +3308,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3282,7 +3331,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3305,7 +3354,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3328,7 +3377,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3351,15 +3400,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C96">
-        <v>302</v>
+        <v>68</v>
       </c>
       <c r="D96" t="s">
         <v>33</v>
@@ -3368,21 +3417,21 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C97">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D97" t="s">
         <v>33</v>
@@ -3397,15 +3446,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C98">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D98" t="s">
         <v>33</v>
@@ -3420,15 +3469,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C99">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D99" t="s">
         <v>33</v>
@@ -3443,21 +3492,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C100">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
       </c>
       <c r="F100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3466,21 +3515,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C101">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D101" t="s">
         <v>33</v>
       </c>
       <c r="F101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3489,15 +3538,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C102">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
         <v>33</v>
@@ -3512,15 +3561,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C103">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D103" t="s">
         <v>33</v>
@@ -3535,21 +3584,21 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C104">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="D104" t="s">
         <v>33</v>
       </c>
       <c r="F104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3558,15 +3607,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C105">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="D105" t="s">
         <v>33</v>
@@ -3575,21 +3624,21 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H105" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C106">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="D106" t="s">
         <v>33</v>
@@ -3598,27 +3647,27 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C107">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D107" t="s">
         <v>33</v>
       </c>
       <c r="F107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -3627,21 +3676,21 @@
         <v>145</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C108">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="D108" t="s">
         <v>33</v>
       </c>
       <c r="F108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -3650,38 +3699,38 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C109">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
         <v>33</v>
       </c>
       <c r="F109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C110">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D110" t="s">
         <v>33</v>
@@ -3690,50 +3739,50 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F111" t="b">
         <v>1</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="D112" t="s">
         <v>34</v>
       </c>
       <c r="F112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -3742,21 +3791,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D113" t="s">
         <v>34</v>
       </c>
       <c r="F113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -3765,21 +3814,21 @@
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C114">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D114" t="s">
         <v>34</v>
       </c>
       <c r="F114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -3788,15 +3837,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="D115" t="s">
         <v>34</v>
@@ -3811,44 +3860,44 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C116">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="D116" t="s">
         <v>34</v>
       </c>
       <c r="F116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C117">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D117" t="s">
         <v>34</v>
       </c>
       <c r="F117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -3857,44 +3906,44 @@
         <v>155</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C118">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="D118" t="s">
         <v>34</v>
       </c>
       <c r="F118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C119">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="D119" t="s">
         <v>34</v>
       </c>
       <c r="F119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -3903,15 +3952,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C120">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="D120" t="s">
         <v>34</v>
@@ -3926,15 +3975,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C121">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="D121" t="s">
         <v>34</v>
@@ -3949,21 +3998,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C122">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D122" t="s">
         <v>34</v>
       </c>
       <c r="F122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -3972,21 +4021,21 @@
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C123">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D123" t="s">
         <v>34</v>
       </c>
       <c r="F123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -3995,15 +4044,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C124">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="D124" t="s">
         <v>34</v>
@@ -4018,15 +4067,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C125">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D125" t="s">
         <v>34</v>
@@ -4041,21 +4090,21 @@
         <v>163</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C126">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D126" t="s">
         <v>34</v>
       </c>
       <c r="F126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -4064,21 +4113,21 @@
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C127">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="D127" t="s">
         <v>34</v>
       </c>
       <c r="F127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -4087,15 +4136,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C128">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="D128" t="s">
         <v>34</v>
@@ -4104,44 +4153,44 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C129">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D129" t="s">
         <v>34</v>
       </c>
       <c r="F129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C130">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D130" t="s">
         <v>34</v>
@@ -4156,15 +4205,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C131">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D131" t="s">
         <v>34</v>
@@ -4173,21 +4222,21 @@
         <v>1</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H131" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C132">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D132" t="s">
         <v>34</v>
@@ -4196,44 +4245,44 @@
         <v>1</v>
       </c>
       <c r="G132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H132" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C133">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
         <v>35</v>
@@ -4248,15 +4297,15 @@
         <v>172</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
         <v>35</v>
@@ -4271,15 +4320,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C136">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D136" t="s">
         <v>35</v>
@@ -4294,15 +4343,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C137">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D137" t="s">
         <v>35</v>
@@ -4317,15 +4366,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C138">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="D138" t="s">
         <v>35</v>
@@ -4340,15 +4389,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C139">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="D139" t="s">
         <v>35</v>
@@ -4363,15 +4412,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C140">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D140" t="s">
         <v>35</v>
@@ -4386,15 +4435,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C141">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D141" t="s">
         <v>35</v>
@@ -4409,15 +4458,15 @@
         <v>179</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C142">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D142" t="s">
         <v>35</v>
@@ -4432,21 +4481,21 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C143">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
       </c>
       <c r="F143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -4455,15 +4504,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C144">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D144" t="s">
         <v>35</v>
@@ -4478,21 +4527,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C145">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
         <v>35</v>
       </c>
       <c r="F145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -4501,15 +4550,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C146">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4524,15 +4573,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C147">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D147" t="s">
         <v>35</v>
@@ -4547,15 +4596,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C148">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D148" t="s">
         <v>35</v>
@@ -4570,15 +4619,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C149">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D149" t="s">
         <v>35</v>
@@ -4593,15 +4642,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C150">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D150" t="s">
         <v>35</v>
@@ -4616,15 +4665,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C151">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D151" t="s">
         <v>35</v>
@@ -4639,15 +4688,15 @@
         <v>189</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C152">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D152" t="s">
         <v>35</v>
@@ -4662,15 +4711,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C153">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
         <v>35</v>
@@ -4685,15 +4734,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C154">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
         <v>35</v>
@@ -4708,18 +4757,18 @@
         <v>192</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C155">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="D155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F155" t="b">
         <v>1</v>
@@ -4731,21 +4780,21 @@
         <v>193</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="D156" t="s">
         <v>36</v>
       </c>
       <c r="F156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -4754,15 +4803,15 @@
         <v>194</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D157" t="s">
         <v>36</v>
@@ -4777,21 +4826,21 @@
         <v>195</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C158">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D158" t="s">
         <v>36</v>
       </c>
       <c r="F158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -4800,15 +4849,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C159">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D159" t="s">
         <v>36</v>
@@ -4823,15 +4872,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C160">
-        <v>62</v>
+        <v>285</v>
       </c>
       <c r="D160" t="s">
         <v>36</v>
@@ -4840,27 +4889,27 @@
         <v>1</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C161">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="D161" t="s">
         <v>36</v>
       </c>
       <c r="F161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -4869,44 +4918,44 @@
         <v>199</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C162">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D162" t="s">
         <v>36</v>
       </c>
       <c r="F162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C163">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D163" t="s">
         <v>36</v>
       </c>
       <c r="F163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -4915,21 +4964,21 @@
         <v>201</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C164">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D164" t="s">
         <v>36</v>
       </c>
       <c r="F164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -4938,15 +4987,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C165">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="D165" t="s">
         <v>36</v>
@@ -4961,116 +5010,116 @@
         <v>203</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C166">
-        <v>118</v>
+        <v>288</v>
       </c>
       <c r="D166" t="s">
         <v>36</v>
       </c>
       <c r="F166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C167">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="D167" t="s">
         <v>36</v>
       </c>
       <c r="F167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H167" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C168">
-        <v>130</v>
+        <v>90.272727272727266</v>
       </c>
       <c r="D168" t="s">
         <v>36</v>
       </c>
+      <c r="E168" t="s">
+        <v>39</v>
+      </c>
       <c r="F168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C169">
-        <v>90.27272727272727</v>
+        <v>199</v>
       </c>
       <c r="D169" t="s">
         <v>36</v>
       </c>
-      <c r="E169" t="s">
-        <v>39</v>
-      </c>
       <c r="F169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C170">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="D170" t="s">
         <v>36</v>
       </c>
       <c r="F170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -5079,15 +5128,15 @@
         <v>208</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C171">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D171" t="s">
         <v>36</v>
@@ -5096,21 +5145,21 @@
         <v>0</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C172">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D172" t="s">
         <v>36</v>
@@ -5119,50 +5168,50 @@
         <v>0</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H172" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C173">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="D173" t="s">
         <v>36</v>
       </c>
       <c r="F173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H173" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C174">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D174" t="s">
         <v>36</v>
       </c>
       <c r="F174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -5171,44 +5220,44 @@
         <v>212</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C175">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D175" t="s">
         <v>36</v>
       </c>
       <c r="F175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C176">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D176" t="s">
         <v>36</v>
       </c>
       <c r="F176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -5217,21 +5266,21 @@
         <v>214</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C177">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="D177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -5240,15 +5289,15 @@
         <v>215</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="D178" t="s">
         <v>37</v>
@@ -5257,21 +5306,21 @@
         <v>1</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H178" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D179" t="s">
         <v>37</v>
@@ -5280,18 +5329,18 @@
         <v>1</v>
       </c>
       <c r="G179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C180">
         <v>54</v>
@@ -5303,21 +5352,21 @@
         <v>1</v>
       </c>
       <c r="G180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C181">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="D181" t="s">
         <v>37</v>
@@ -5326,70 +5375,70 @@
         <v>1</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C182">
-        <v>223</v>
+        <v>90.272727272727266</v>
       </c>
       <c r="D182" t="s">
         <v>37</v>
       </c>
+      <c r="E182" t="s">
+        <v>39</v>
+      </c>
       <c r="F182" t="b">
         <v>1</v>
       </c>
       <c r="G182">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H182" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C183">
-        <v>90.27272727272727</v>
+        <v>101</v>
       </c>
       <c r="D183" t="s">
         <v>37</v>
       </c>
-      <c r="E183" t="s">
-        <v>39</v>
-      </c>
       <c r="F183" t="b">
         <v>1</v>
       </c>
       <c r="G183">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C184">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D184" t="s">
         <v>37</v>
@@ -5404,15 +5453,15 @@
         <v>222</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C185">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="D185" t="s">
         <v>37</v>
@@ -5427,15 +5476,15 @@
         <v>223</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C186">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D186" t="s">
         <v>37</v>
@@ -5450,15 +5499,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C187">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D187" t="s">
         <v>37</v>
@@ -5473,15 +5522,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C188">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D188" t="s">
         <v>37</v>
@@ -5496,15 +5545,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C189">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D189" t="s">
         <v>37</v>
@@ -5519,15 +5568,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C190">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D190" t="s">
         <v>37</v>
@@ -5542,15 +5591,15 @@
         <v>228</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C191">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="D191" t="s">
         <v>37</v>
@@ -5565,15 +5614,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C192">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="D192" t="s">
         <v>37</v>
@@ -5588,15 +5637,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C193">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="D193" t="s">
         <v>37</v>
@@ -5605,21 +5654,21 @@
         <v>1</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C194">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="D194" t="s">
         <v>37</v>
@@ -5628,21 +5677,21 @@
         <v>1</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H194" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C195">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D195" t="s">
         <v>37</v>
@@ -5651,21 +5700,21 @@
         <v>1</v>
       </c>
       <c r="G195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C196">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="D196" t="s">
         <v>37</v>
@@ -5674,21 +5723,21 @@
         <v>1</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H196" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C197">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="D197" t="s">
         <v>37</v>
@@ -5697,21 +5746,21 @@
         <v>1</v>
       </c>
       <c r="G197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C198">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D198" t="s">
         <v>37</v>
@@ -5720,50 +5769,50 @@
         <v>1</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C199">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D199" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F199" t="b">
         <v>1</v>
       </c>
       <c r="G199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D200" t="s">
         <v>38</v>
       </c>
       <c r="F200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -5772,38 +5821,38 @@
         <v>238</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D201" t="s">
         <v>38</v>
       </c>
       <c r="F201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H201" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C202">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D202" t="s">
         <v>38</v>
@@ -5812,21 +5861,21 @@
         <v>1</v>
       </c>
       <c r="G202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H202" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C203">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D203" t="s">
         <v>38</v>
@@ -5841,15 +5890,15 @@
         <v>241</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C204">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D204" t="s">
         <v>38</v>
@@ -5864,15 +5913,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C205">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="D205" t="s">
         <v>38</v>
@@ -5887,15 +5936,15 @@
         <v>243</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C206">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D206" t="s">
         <v>38</v>
@@ -5910,15 +5959,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C207">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D207" t="s">
         <v>38</v>
@@ -5933,15 +5982,15 @@
         <v>245</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C208">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D208" t="s">
         <v>38</v>
@@ -5956,15 +6005,15 @@
         <v>246</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C209">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D209" t="s">
         <v>38</v>
@@ -5979,15 +6028,15 @@
         <v>247</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C210">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="D210" t="s">
         <v>38</v>
@@ -6002,15 +6051,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C211">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="D211" t="s">
         <v>38</v>
@@ -6025,15 +6074,15 @@
         <v>249</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C212">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D212" t="s">
         <v>38</v>
@@ -6048,15 +6097,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C213">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="D213" t="s">
         <v>38</v>
@@ -6071,15 +6120,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C214">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D214" t="s">
         <v>38</v>
@@ -6094,15 +6143,15 @@
         <v>252</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C215">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="D215" t="s">
         <v>38</v>
@@ -6117,67 +6166,67 @@
         <v>253</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C216">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D216" t="s">
         <v>38</v>
       </c>
       <c r="F216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H216" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C217">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="D217" t="s">
         <v>38</v>
       </c>
       <c r="F217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C218">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D218" t="s">
         <v>38</v>
       </c>
       <c r="F218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -6186,21 +6235,21 @@
         <v>256</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C219">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D219" t="s">
         <v>38</v>
       </c>
       <c r="F219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -6209,15 +6258,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C220">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D220" t="s">
         <v>38</v>
@@ -6230,29 +6279,6 @@
       </c>
       <c r="H220" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221" t="s">
-        <v>28</v>
-      </c>
-      <c r="C221">
-        <v>51</v>
-      </c>
-      <c r="D221" t="s">
-        <v>38</v>
-      </c>
-      <c r="F221" t="b">
-        <v>1</v>
-      </c>
-      <c r="G221">
-        <v>1</v>
-      </c>
-      <c r="H221" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
